--- a/DeltaX_testcases.xlsx
+++ b/DeltaX_testcases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUSUF S\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUSUF S\Desktop\deltaX_app_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Positive Test" sheetId="1" r:id="rId1"/>
@@ -215,9 +215,6 @@
     <t>DeltaX Application SignUp Page Testcases</t>
   </si>
   <si>
-    <t>Severity</t>
-  </si>
-  <si>
     <t>To test signup fail when entered contact no is more then 10 digit</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>No email received.</t>
+  </si>
+  <si>
+    <t>Bug Severity</t>
   </si>
 </sst>
 </file>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +713,9 @@
     <col min="5" max="6" width="31.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="45" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -738,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>5</v>
@@ -750,7 +752,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -764,7 +766,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -781,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>33</v>
@@ -798,7 +800,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>33</v>
@@ -812,19 +814,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>39</v>
@@ -838,19 +840,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>39</v>
@@ -870,7 +872,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
@@ -890,7 +892,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>37</v>
@@ -907,7 +909,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>38</v>
@@ -927,10 +929,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>40</v>
@@ -947,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>46</v>
@@ -973,7 +975,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>41</v>
@@ -996,7 +998,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>44</v>
@@ -1010,10 +1012,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>44</v>
@@ -1030,7 +1032,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>44</v>
